--- a/testes software/Dados_Apresentação Programa 2.xlsx
+++ b/testes software/Dados_Apresentação Programa 2.xlsx
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -137,7 +145,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -147,12 +155,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>1.5</v>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
